--- a/examples/milestone_6/issue_32/testdata.xlsx
+++ b/examples/milestone_6/issue_32/testdata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +459,7 @@
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,9 +477,8 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -497,9 +496,8 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -517,9 +515,8 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -537,9 +534,8 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -557,9 +553,8 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -577,9 +572,8 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -597,9 +591,8 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -617,9 +610,8 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -637,9 +629,8 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -657,9 +648,8 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -677,9 +667,8 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -697,9 +686,8 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -717,9 +705,8 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -735,9 +722,8 @@
       <c r="E14" s="4">
         <v>42861</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
